--- a/static/log.xlsx
+++ b/static/log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,96 +468,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>pravinkumar</t>
+          <t>myname</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4SO19CS119</t>
+          <t>123423424</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>laser machine</t>
+          <t>lab tools</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11:17</t>
+          <t>19:51</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>12:17</t>
+          <t>20:51</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2022-03-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>i am pk</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>4so sdfjl</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>laser machine</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>11:41</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>12:42</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2022-03-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Yathish</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>123456</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>3d printing machine</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>02:31</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>15:31</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2022-03-17</t>
+          <t>2022-03-31</t>
         </is>
       </c>
     </row>

--- a/static/log.xlsx
+++ b/static/log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,32 +468,896 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>VOID</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>4so sdfjl</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3d printing machine</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2022-03-30T16:12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2022-03-30T21:12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2022-03-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>i am pk</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4so sdfjl</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>3d printing machine</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2022-03-30T16:40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2022-03-30T21:40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2022-03-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Hello world</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1234</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>laser machine</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2022-03-30T17:05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2022-03-30T17:07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2022-03-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pravinkumar</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4SO19CS119</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>laser machine</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2022-03-30T17:12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2022-03-30T17:13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2022-03-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>daddy daddy</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>4so sdfjl</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>laser machine</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2022-03-30T17:20</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2022-03-30T17:21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2022-03-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>qwdwq</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>laser machine</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2022-03-30T17:25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2022-03-30T17:30</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2022-03-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>df</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>laser machine</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2022-03-30T17:20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2022-03-30T17:24</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2022-03-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>i am pk</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>some9302</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>laser machine</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2022-03-31T17:23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2022-03-31T17:29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2022-03-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>myname</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>123423424</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>lab tools</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>19:51</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>20:51</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>4SO19CS119</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>3d printing machine</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2022-03-31T13:52</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2022-03-31T17:52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>2022-03-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>fake</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>laser machine</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2022-03-29T19:53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2022-03-29T20:53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2022-03-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>deepansh</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>4SO19CS119</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>laser machine</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2022-04-01T10:18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2022-04-01T00:18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2022-04-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>pk</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>laser machine</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2022-04-01T10:19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2022-04-01T11:19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2022-04-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Hello world</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>4SO19CS119</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>laser machine</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2022-04-01T16:13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2022-04-01T17:13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2022-04-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pravin</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>4so19vs119</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>laser machine</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2022-04-14T11:40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2022-04-14T13:40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2022-04-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>wdjfl</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>laser machine</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2022-04-18T21:01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2022-04-18T21:01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2022-04-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>wdjfl</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>laser machine</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2022-04-18T21:01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2022-04-18T13:01</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2022-04-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>wdjfl</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>laser machine</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2022-04-18T21:01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2022-04-18T16:01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2022-04-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>wdjfl</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>laser machine</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2022-04-18T21:01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2022-04-18T16:07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2022-04-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>wdjfl</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>laser machine</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2022-04-18T21:01</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2022-04-18T16:10</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2022-04-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>wdjfl</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>laser machine</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2022-04-18T21:01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2022-04-18T20:10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2022-04-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>wdjfl</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>laser machine</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2022-04-18T21:01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2022-04-18T20:10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2022-04-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>wdjfl</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>laser machine</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2022-04-18T21:01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2022-04-18T13:10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2022-04-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>hello</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>wdjfl</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>laser machine</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2022-04-18T21:01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2022-04-18T13:10</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2022-04-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>hljew</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>lsdjf</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>laser machine</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2022-04-18T02:27</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2022-04-18T03:28</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2022-04-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>hljew</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>lsdjf</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>laser machine</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2022-04-18T02:27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2022-04-18T03:30</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2022-04-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>something</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>dlsfj</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>3d printing machine</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2022-04-18T22:25</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2022-04-18T23:26</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2022-04-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ok workd</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>sdljfl</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>laser machine</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2022-04-18T22:29</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2022-04-18T23:29</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2022-04-18</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>sk</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>42545</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>laser machine</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2022-04-26T18:06</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2022-04-27T18:06</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2022-04-26</t>
         </is>
       </c>
     </row>

--- a/static/log.xlsx
+++ b/static/log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,44 +468,44 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>VOID</t>
+          <t>hello world</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4so sdfjl</t>
+          <t>123</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3d printing machine</t>
+          <t>laser machine</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2022-03-30T16:12</t>
+          <t>2022-04-27 23:02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2022-03-30T21:12</t>
+          <t>2022-04-27 23:03</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2022-03-30</t>
+          <t>2022-04-27 23:02:59</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>i am pk</t>
+          <t>hello world</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4so sdfjl</t>
+          <t>4SO19CS119</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,29 +515,29 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2022-03-30T16:40</t>
+          <t>2022-04-27 23:04</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2022-03-30T21:40</t>
+          <t>2022-04-27 23:06</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2022-03-30</t>
+          <t>2022-04-27 23:04:15</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hello world</t>
+          <t>lets check</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,29 +547,29 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2022-03-30T17:05</t>
+          <t>2022-04-27 23:16</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2022-03-30T17:07</t>
+          <t>2022-04-27 23:18</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2022-03-30</t>
+          <t>2022-04-27 23:16:39</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>pravinkumar</t>
+          <t>lets check</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4SO19CS119</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,29 +579,29 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2022-03-30T17:12</t>
+          <t>2022-04-27 23:16</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2022-03-30T17:13</t>
+          <t>2022-04-27 23:18</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2022-03-30</t>
+          <t>2022-04-27 23:17:00</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>daddy daddy</t>
+          <t>lets check</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4so sdfjl</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,29 +611,29 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2022-03-30T17:20</t>
+          <t>2022-04-27 23:16</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2022-03-30T17:21</t>
+          <t>2022-04-27 23:18</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2022-03-30</t>
+          <t>2022-04-27 23:17:26</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>lets check</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>qwdwq</t>
+          <t>232</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,29 +643,29 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2022-03-30T17:25</t>
+          <t>2022-04-27 23:16</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2022-03-30T17:30</t>
+          <t>2022-04-27 23:18</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2022-03-30</t>
+          <t>2022-04-27 23:17:32</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>im done</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>df</t>
+          <t>121</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,29 +675,29 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2022-03-30T17:20</t>
+          <t>2022-04-27 23:16</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2022-03-30T17:24</t>
+          <t>2022-04-27 23:18</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2022-03-30</t>
+          <t>2022-04-27 23:18:28</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>i am pk</t>
+          <t>im done</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>some9302</t>
+          <t>121</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -707,29 +707,29 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2022-03-31T17:23</t>
+          <t>2022-04-27 23:16</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2022-03-31T17:29</t>
+          <t>2022-04-27 23:18</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2022-03-30</t>
+          <t>2022-04-27 23:18:35</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>myname</t>
+          <t>works</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4SO19CS119</t>
+          <t>1321</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -739,29 +739,29 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2022-03-31T13:52</t>
+          <t>2022-04-27 23:25</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2022-03-31T17:52</t>
+          <t>2022-04-27 23:27</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>2022-04-27 23:25:45</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>fake</t>
+          <t>im tired</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>423</t>
+          <t>132</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -771,29 +771,29 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2022-03-29T19:53</t>
+          <t>2022-04-27 23:27</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2022-03-29T20:53</t>
+          <t>2022-04-27 23:28</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2022-03-31</t>
+          <t>2022-04-27 23:27:35</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>deepansh</t>
+          <t>dead</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4SO19CS119</t>
+          <t>1352</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -803,29 +803,29 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2022-04-01T10:18</t>
+          <t>2022-04-27 23:29</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2022-04-01T00:18</t>
+          <t>2022-04-27 23:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>2022-04-27 23:28:18</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>pk</t>
+          <t>kdjflaksdklfjl</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pk</t>
+          <t>4so sdfjl</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -835,29 +835,29 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2022-04-01T10:19</t>
+          <t>2022-04-27 23:35</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2022-04-01T11:19</t>
+          <t>2022-04-27 23:37</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>2022-04-27 23:29:54</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Hello world</t>
+          <t>ijdifk</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4SO19CS119</t>
+          <t>jkd</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -867,29 +867,29 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2022-04-01T16:13</t>
+          <t>2022-04-27 23:32</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2022-04-01T17:13</t>
+          <t>2022-04-27 23:34</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2022-04-01</t>
+          <t>2022-04-27 23:31:08</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>pravin</t>
+          <t>ijdifk</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4so19vs119</t>
+          <t>jkd</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -899,465 +899,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2022-04-14T11:40</t>
+          <t>2022-04-27 23:32</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2022-04-14T13:40</t>
+          <t>2022-04-27 23:34</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2022-04-14</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>hello</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>wdjfl</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>laser machine</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2022-04-18T21:01</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2022-04-18T21:01</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2022-04-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>hello</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>wdjfl</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>laser machine</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2022-04-18T21:01</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2022-04-18T13:01</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2022-04-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>hello</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>wdjfl</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>laser machine</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2022-04-18T21:01</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2022-04-18T16:01</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2022-04-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>hello</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>wdjfl</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>laser machine</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2022-04-18T21:01</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2022-04-18T16:07</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2022-04-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>hello</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>wdjfl</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>laser machine</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2022-04-18T21:01</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2022-04-18T16:10</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2022-04-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>hello</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>wdjfl</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>laser machine</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2022-04-18T21:01</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>2022-04-18T20:10</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2022-04-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>hello</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>wdjfl</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>laser machine</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2022-04-18T21:01</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>2022-04-18T20:10</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2022-04-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>hello</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>wdjfl</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>laser machine</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2022-04-18T21:01</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>2022-04-18T13:10</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2022-04-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>hello</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>wdjfl</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>laser machine</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2022-04-18T21:01</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2022-04-18T13:10</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>2022-04-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>hljew</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>lsdjf</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>laser machine</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2022-04-18T02:27</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2022-04-18T03:28</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2022-04-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>hljew</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>lsdjf</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>laser machine</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2022-04-18T02:27</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>2022-04-18T03:30</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2022-04-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>something</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>dlsfj</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>3d printing machine</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2022-04-18T22:25</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>2022-04-18T23:26</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2022-04-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>ok workd</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>sdljfl</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>laser machine</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2022-04-18T22:29</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>2022-04-18T23:29</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>2022-04-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>sk</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>42545</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>laser machine</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>2022-04-26T18:06</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>2022-04-27T18:06</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2022-04-26</t>
+          <t>2022-04-27 23:32:17</t>
         </is>
       </c>
     </row>

--- a/static/log.xlsx
+++ b/static/log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,448 +468,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>hello world</t>
+          <t>akhtar ahsan sayeed</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>111</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>laser machine</t>
+          <t>3d printing machine</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2022-04-27 23:02</t>
+          <t>2022-04-28 22:42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2022-04-27 23:03</t>
+          <t>2022-04-28 22:45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2022-04-27 23:02:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>hello world</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>4SO19CS119</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>3d printing machine</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2022-04-27 23:04</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2022-04-27 23:06</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2022-04-27 23:04:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>lets check</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>232</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>laser machine</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2022-04-27 23:16</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2022-04-27 23:18</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2022-04-27 23:16:39</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>lets check</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>232</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>laser machine</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2022-04-27 23:16</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2022-04-27 23:18</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2022-04-27 23:17:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>lets check</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>232</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>laser machine</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2022-04-27 23:16</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2022-04-27 23:18</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2022-04-27 23:17:26</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>lets check</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>232</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>laser machine</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2022-04-27 23:16</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2022-04-27 23:18</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2022-04-27 23:17:32</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>im done</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>laser machine</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2022-04-27 23:16</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2022-04-27 23:18</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2022-04-27 23:18:28</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>im done</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>laser machine</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2022-04-27 23:16</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2022-04-27 23:18</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2022-04-27 23:18:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>works</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1321</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>3d printing machine</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2022-04-27 23:25</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2022-04-27 23:27</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2022-04-27 23:25:45</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>im tired</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>132</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>laser machine</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2022-04-27 23:27</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2022-04-27 23:28</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2022-04-27 23:27:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>dead</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1352</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>laser machine</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2022-04-27 23:29</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2022-04-27 23:30</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2022-04-27 23:28:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>kdjflaksdklfjl</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>4so sdfjl</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>laser machine</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2022-04-27 23:35</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2022-04-27 23:37</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2022-04-27 23:29:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>ijdifk</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>jkd</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>laser machine</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2022-04-27 23:32</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2022-04-27 23:34</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2022-04-27 23:31:08</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>ijdifk</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>jkd</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>laser machine</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2022-04-27 23:32</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2022-04-27 23:34</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2022-04-27 23:32:17</t>
+          <t>2022-04-28 22:41:34</t>
         </is>
       </c>
     </row>

--- a/static/log.xlsx
+++ b/static/log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,66 +434,78 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>USN</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Purpose</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>CheckInTime</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>CheckOutTime</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>akhtar ahsan sayeed</t>
+          <t>pravinkumar</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>4SO19CS119</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>3d printing machine</t>
+          <t>Team Achillius</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2022-04-28 22:42</t>
+          <t>laser machine</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2022-04-28 22:45</t>
+          <t>testing</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2022-04-28 22:41:34</t>
+          <t>2022-05-23 16:41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2022-05-23 16:45</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>20220515_160315 (1).png</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2022-05-23 16:40:21</t>
         </is>
       </c>
     </row>
